--- a/intervention/maths_auto.xlsx
+++ b/intervention/maths_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -462,161 +462,1461 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M888201710014</t>
+          <t>Z931325309007</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M931235210024</t>
+          <t>F931100609012</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N931240110007</t>
+          <t>J931101108070</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F931100609012</t>
+          <t>R931252710029</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T931100609002</t>
+          <t>Q931253109015</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R931101109037</t>
+          <t>M931412019009</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R931100609011</t>
+          <t>T931100609002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Q931202016013</t>
+          <t>R931101109037</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Q931253109015</t>
+          <t>N931240110007</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R931252710029</t>
+          <t>R931100609011</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Z931325309007</t>
+          <t>M931235210024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>L931412020030</t>
+          <t>Q931202016013</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J931101108070</t>
+          <t>M888201710014</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M931412019009</t>
+          <t>L931101008038</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L931101008038</t>
+          <t>Q931101008033</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Q931101008033</t>
+          <t>U931412020025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>K931325309006</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A380404117005</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R931321009045</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z931383214002</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>G931321110032</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>W391377809016</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>L931412020030</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F931235210018</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F931100609041</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>G931321113006</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>X931252710015</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>W931321310001</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>H931101109051</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>H931321309010</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>K931325309035</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>V931414517045</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>N304350709089</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>H931101008036</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Q931252108040</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Z931100609006</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>X931252211041</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M931325212046</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>N931252508050</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Y931100509032</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>J931384210007</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B931252509032</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>T931252911047</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C931253116052</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>N931101109035</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>V333218013124</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Y931412017035</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B931235209044</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>C931253110015</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>W931101108060</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>U931252110024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>U931325208066</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>V931252909047</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>T931100609031</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>N931100608064</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F931252509025</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>L931383612038</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>T931100609029</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R931100609009</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A931252108046</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>K931101109004</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>X886463320016</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>U931101109021</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Q931101109017</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Q931101109046</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B931101108073</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>V931100509030</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>K931383410019</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X931325208068</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>V931325309014</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>U931383908031</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>U931253114004</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>L931321113001</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>D931252710019</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D316209709080</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>B931252109011</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>N931383610018</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>G931383410017</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>T931321112004</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>L931412020028</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>F931252109004</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>C373236909082</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>L394201008038</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B931383814058</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>E931252916073</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R931325310022</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>C931101109036</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>W931101109061</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>F931252108061</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>G931383411018</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>N931100609007</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Q879418719002</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>U931258914007</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>G931321110003</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>D931100608056</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>K931252509018</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Q931252109012</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>D931325308030</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>P931261209024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>N931101108063</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>C931252508049</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>L931252508066</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>L931252709035</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X931235209022</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>C931101109007</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Q931258910001</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>T931412020034</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Q931325208064</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>M931321008051</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>R928218115049</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D931252109051</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Y888201710013</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>N931252909043</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>T931252509015</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>G931101109060</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>N931325309008</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>U931101109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>C931321610014</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>B931252710010</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>A931100509014</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>T887690719015</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>W931254310067</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>W310350110023</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Q931235212001</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>P931383310002</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>V931321008075</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>M931252710007</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>W931252111065</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>V931412017033</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>U931252114001</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>W931321110033</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>H931252109073</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Y931321610021</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>N931253409013</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B931259309004</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>L931101109024</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>H931100509009</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>V931252111045</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>P931252109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>M931252110020</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>M931259308029</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>D931101009015</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>X931325210023</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>G931259509014</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Q931252907052</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>V931101109041</t>
         </is>
       </c>
     </row>
